--- a/data/eDNAsamples_GJE_2021_Rform.xlsx
+++ b/data/eDNAsamples_GJE_2021_Rform.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EEG\NIVA\Anette Engesmo - Pukkellaks manuskript eDNA\200130_fish_eDNA_rscripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niva365-my.sharepoint.com/personal/anette_engesmo_niva_no/Documents/Delte dokumenter og mapper/Pukkellaks manuskript eDNA/200130_fish_eDNA_rscripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6108768-A06F-432F-BCD1-8410A8BCE780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E6108768-A06F-432F-BCD1-8410A8BCE780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EEC32F1-A7FF-42F0-8F8F-77A3DF774435}"/>
   <bookViews>
-    <workbookView xWindow="34395" yWindow="5805" windowWidth="21600" windowHeight="11595" xr2:uid="{DB3A7537-D49D-4DA3-89C7-8EA23D606676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DB3A7537-D49D-4DA3-89C7-8EA23D606676}"/>
   </bookViews>
   <sheets>
     <sheet name="GJE_metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>sampl_replicate</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>edna_elut</t>
+  </si>
+  <si>
+    <t>tot_edna_ngml</t>
+  </si>
+  <si>
+    <t>dist_ocean</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
   <si>
     <t>567</t>
   </si>
@@ -45,33 +101,6 @@
     <t>569</t>
   </si>
   <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -94,39 +123,6 @@
   </si>
   <si>
     <t>584</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>edna_elut</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>sampl_replicate</t>
-  </si>
-  <si>
-    <t>dist_ocean</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>pink_sal_obs</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>tot_edna_ngml</t>
   </si>
 </sst>
 </file>
@@ -576,55 +572,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AB6432-58F8-4B87-810B-8838E71252E8}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="13.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="17"/>
+    <col min="4" max="4" width="8.54296875" style="17"/>
     <col min="5" max="5" width="13.26953125" customWidth="1"/>
     <col min="6" max="6" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -653,11 +646,8 @@
       <c r="I2" s="15">
         <v>30.887350000000001</v>
       </c>
-      <c r="J2" s="2">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -686,11 +676,8 @@
       <c r="I3" s="15">
         <v>30.887350000000001</v>
       </c>
-      <c r="J3" s="2">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -719,16 +706,13 @@
       <c r="I4" s="15">
         <v>30.887350000000001</v>
       </c>
-      <c r="J4" s="2">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -752,16 +736,13 @@
       <c r="I5" s="15">
         <v>30.891089999999998</v>
       </c>
-      <c r="J5" s="2">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -785,16 +766,13 @@
       <c r="I6" s="15">
         <v>30.891089999999998</v>
       </c>
-      <c r="J6" s="2">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="12">
         <v>3</v>
@@ -818,16 +796,13 @@
       <c r="I7" s="15">
         <v>30.891089999999998</v>
       </c>
-      <c r="J7" s="2">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -851,16 +826,13 @@
       <c r="I8" s="15">
         <v>30.939630000000001</v>
       </c>
-      <c r="J8" s="2">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -884,16 +856,13 @@
       <c r="I9" s="15">
         <v>30.939630000000001</v>
       </c>
-      <c r="J9" s="2">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" s="12">
         <v>3</v>
@@ -917,16 +886,13 @@
       <c r="I10" s="15">
         <v>30.939630000000001</v>
       </c>
-      <c r="J10" s="2">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -950,16 +916,13 @@
       <c r="I11" s="15">
         <v>30.9377</v>
       </c>
-      <c r="J11" s="2">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -983,16 +946,13 @@
       <c r="I12" s="15">
         <v>30.9377</v>
       </c>
-      <c r="J12" s="2">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C13" s="12">
         <v>3</v>
@@ -1016,16 +976,13 @@
       <c r="I13" s="15">
         <v>30.9377</v>
       </c>
-      <c r="J13" s="2">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
@@ -1049,16 +1006,13 @@
       <c r="I14" s="15">
         <v>30.952200000000001</v>
       </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C15" s="12">
         <v>2</v>
@@ -1082,16 +1036,13 @@
       <c r="I15" s="15">
         <v>30.952200000000001</v>
       </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
@@ -1115,16 +1066,13 @@
       <c r="I16" s="15">
         <v>30.952200000000001</v>
       </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -1148,16 +1096,13 @@
       <c r="I17" s="15">
         <v>30.94154</v>
       </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -1181,16 +1126,13 @@
       <c r="I18" s="15">
         <v>30.94154</v>
       </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C19" s="12">
         <v>3</v>
@@ -1214,25 +1156,22 @@
       <c r="I19" s="15">
         <v>30.94154</v>
       </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C27"/>
     </row>
   </sheetData>
